--- a/영화관 - WBS.xlsx
+++ b/영화관 - WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javawork\MultiplexTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB377FB-7DF2-40F6-8E1C-887B626B0E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79136319-79B1-463A-9C82-EB42B079D935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21060" yWindow="1500" windowWidth="13230" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>태스크</t>
   </si>
@@ -137,7 +137,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
+    <t xml:space="preserve">   화면 설계</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -641,6 +641,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,7 +662,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -877,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG1028"/>
+  <dimension ref="A1:BG1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -897,92 +897,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="70" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="73"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="1">
         <v>9</v>
       </c>
@@ -1630,11 +1630,11 @@
       <c r="A10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
+      <c r="C10" s="52" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="15">
         <v>43817</v>
@@ -1698,259 +1698,267 @@
       <c r="BG10" s="11"/>
     </row>
     <row r="11" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43820</v>
+      </c>
+      <c r="E11" s="52"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="30"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="11"/>
     </row>
     <row r="12" spans="1:59" ht="16.5" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="28"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="32"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="10"/>
       <c r="BG12" s="11"/>
     </row>
     <row r="13" spans="1:59" ht="16.5" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="32"/>
       <c r="BG13" s="11"/>
     </row>
     <row r="14" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+    </row>
+    <row r="15" spans="1:59" ht="16.5" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-    </row>
-    <row r="15" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -2011,70 +2019,70 @@
       <c r="BG15" s="36"/>
     </row>
     <row r="16" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+    </row>
+    <row r="17" spans="1:59" ht="16.5" customHeight="1">
+      <c r="A17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-      <c r="AZ16" s="39"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="39"/>
-      <c r="BC16" s="39"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-    </row>
-    <row r="17" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -2501,71 +2509,69 @@
       <c r="BG23" s="39"/>
     </row>
     <row r="24" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+    </row>
+    <row r="25" spans="1:59" ht="16.5" customHeight="1">
+      <c r="A25" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
-      <c r="AV24" s="9"/>
-      <c r="AW24" s="9"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="10"/>
-      <c r="BG24" s="40"/>
-    </row>
-    <row r="25" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A25" s="41" t="s">
-        <v>25</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -2624,18 +2630,18 @@
       <c r="BD25" s="9"/>
       <c r="BE25" s="9"/>
       <c r="BF25" s="10"/>
-      <c r="BG25" s="11"/>
+      <c r="BG25" s="40"/>
     </row>
     <row r="26" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2690,15 +2696,15 @@
       <c r="BG26" s="11"/>
     </row>
     <row r="27" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A27" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2753,13 +2759,15 @@
       <c r="BG27" s="11"/>
     </row>
     <row r="28" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="51"/>
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2814,7 +2822,7 @@
       <c r="BG28" s="11"/>
     </row>
     <row r="29" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
@@ -2875,13 +2883,13 @@
       <c r="BG29" s="11"/>
     </row>
     <row r="30" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2936,13 +2944,13 @@
       <c r="BG30" s="11"/>
     </row>
     <row r="31" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="51"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2998,7 +3006,7 @@
     </row>
     <row r="32" spans="1:59" ht="16.5" customHeight="1">
       <c r="A32" s="41"/>
-      <c r="B32" s="54"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -3119,15 +3127,13 @@
       <c r="BG33" s="11"/>
     </row>
     <row r="34" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A34" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -3182,13 +3188,15 @@
       <c r="BG34" s="11"/>
     </row>
     <row r="35" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -3243,13 +3251,13 @@
       <c r="BG35" s="11"/>
     </row>
     <row r="36" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="51"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -3304,7 +3312,7 @@
       <c r="BG36" s="11"/>
     </row>
     <row r="37" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
@@ -3365,13 +3373,13 @@
       <c r="BG37" s="11"/>
     </row>
     <row r="38" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -3426,13 +3434,13 @@
       <c r="BG38" s="11"/>
     </row>
     <row r="39" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A39" s="41"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="58"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="60"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -3487,8 +3495,8 @@
       <c r="BG39" s="11"/>
     </row>
     <row r="40" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -3548,7 +3556,7 @@
       <c r="BG40" s="11"/>
     </row>
     <row r="41" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A41" s="41"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="61"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -3731,15 +3739,13 @@
       <c r="BG43" s="11"/>
     </row>
     <row r="44" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A44" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3794,13 +3800,15 @@
       <c r="BG44" s="11"/>
     </row>
     <row r="45" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="62"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3855,13 +3863,13 @@
       <c r="BG45" s="11"/>
     </row>
     <row r="46" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="59"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3922,7 +3930,7 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="60"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -4100,7 +4108,7 @@
     </row>
     <row r="50" spans="1:59" ht="16.5" customHeight="1">
       <c r="A50" s="41"/>
-      <c r="B50" s="61"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -4161,12 +4169,12 @@
     </row>
     <row r="51" spans="1:59" ht="16.5" customHeight="1">
       <c r="A51" s="41"/>
-      <c r="B51" s="54"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="59"/>
+      <c r="G51" s="60"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -4227,7 +4235,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="60"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -4344,7 +4352,7 @@
     </row>
     <row r="54" spans="1:59" ht="16.5" customHeight="1">
       <c r="A54" s="41"/>
-      <c r="B54" s="50"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -4527,12 +4535,12 @@
     </row>
     <row r="57" spans="1:59" ht="16.5" customHeight="1">
       <c r="A57" s="41"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="60"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -4588,12 +4596,12 @@
     </row>
     <row r="58" spans="1:59" ht="16.5" customHeight="1">
       <c r="A58" s="41"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="59"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -4654,7 +4662,7 @@
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="60"/>
+      <c r="G59" s="59"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -4771,7 +4779,7 @@
     </row>
     <row r="61" spans="1:59" ht="16.5" customHeight="1">
       <c r="A61" s="41"/>
-      <c r="B61" s="61"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -4959,7 +4967,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="59"/>
+      <c r="G64" s="60"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -5020,7 +5028,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="28"/>
-      <c r="G65" s="60"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -5076,7 +5084,7 @@
     </row>
     <row r="66" spans="1:59" ht="16.5" customHeight="1">
       <c r="A66" s="41"/>
-      <c r="B66" s="54"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -5209,10 +5217,10 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
@@ -5270,23 +5278,23 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
@@ -5325,7 +5333,7 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="28"/>
-      <c r="G70" s="59"/>
+      <c r="G70" s="60"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -5334,20 +5342,20 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="30"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
@@ -5386,7 +5394,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="28"/>
-      <c r="G71" s="60"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -5447,7 +5455,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="28"/>
-      <c r="G72" s="59"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -5503,12 +5511,12 @@
     </row>
     <row r="73" spans="1:59" ht="16.5" customHeight="1">
       <c r="A73" s="41"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="60"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -5686,7 +5694,7 @@
     </row>
     <row r="76" spans="1:59" ht="16.5" customHeight="1">
       <c r="A76" s="41"/>
-      <c r="B76" s="64"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -5807,15 +5815,13 @@
       <c r="BG77" s="11"/>
     </row>
     <row r="78" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="60"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -5866,19 +5872,19 @@
       <c r="BC78" s="9"/>
       <c r="BD78" s="9"/>
       <c r="BE78" s="9"/>
-      <c r="BF78" s="9"/>
-      <c r="BG78" s="9"/>
+      <c r="BF78" s="10"/>
+      <c r="BG78" s="11"/>
     </row>
     <row r="79" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A79" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="60"/>
+      <c r="A79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -5929,12 +5935,12 @@
       <c r="BC79" s="9"/>
       <c r="BD79" s="9"/>
       <c r="BE79" s="9"/>
-      <c r="BF79" s="10"/>
-      <c r="BG79" s="11"/>
+      <c r="BF79" s="9"/>
+      <c r="BG79" s="9"/>
     </row>
     <row r="80" spans="1:59" ht="16.5" customHeight="1">
       <c r="A80" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="14"/>
@@ -5995,24 +6001,86 @@
       <c r="BF80" s="10"/>
       <c r="BG80" s="11"/>
     </row>
-    <row r="81" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="82" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="83" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="84" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A84" s="65"/>
-    </row>
-    <row r="85" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="86" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="87" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="88" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="89" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="90" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="91" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="92" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="93" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="94" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="95" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="96" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="81" spans="1:59" ht="16.5" customHeight="1">
+      <c r="A81" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
+      <c r="AI81" s="9"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="9"/>
+      <c r="AM81" s="9"/>
+      <c r="AN81" s="9"/>
+      <c r="AO81" s="9"/>
+      <c r="AP81" s="9"/>
+      <c r="AQ81" s="9"/>
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="9"/>
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="9"/>
+      <c r="AV81" s="9"/>
+      <c r="AW81" s="9"/>
+      <c r="AX81" s="9"/>
+      <c r="AY81" s="9"/>
+      <c r="AZ81" s="9"/>
+      <c r="BA81" s="9"/>
+      <c r="BB81" s="9"/>
+      <c r="BC81" s="9"/>
+      <c r="BD81" s="9"/>
+      <c r="BE81" s="9"/>
+      <c r="BF81" s="10"/>
+      <c r="BG81" s="11"/>
+    </row>
+    <row r="82" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="83" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="84" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="85" spans="1:59" ht="16.5" customHeight="1">
+      <c r="A85" s="65"/>
+    </row>
+    <row r="86" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="87" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="88" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="89" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="90" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="91" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="92" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="93" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="94" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="95" spans="1:59" ht="16.5" customHeight="1"/>
+    <row r="96" spans="1:59" ht="16.5" customHeight="1"/>
     <row r="97" ht="16.5" customHeight="1"/>
     <row r="98" ht="16.5" customHeight="1"/>
     <row r="99" ht="16.5" customHeight="1"/>
@@ -6945,6 +7013,7 @@
     <row r="1026" ht="16.5" customHeight="1"/>
     <row r="1027" ht="16.5" customHeight="1"/>
     <row r="1028" ht="16.5" customHeight="1"/>
+    <row r="1029" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="F1:F2"/>

--- a/영화관 - WBS.xlsx
+++ b/영화관 - WBS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>태스크</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>12월</t>
-  </si>
-  <si>
-    <t>1월</t>
   </si>
   <si>
     <t>착수</t>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">   화면 설계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   화면 흐름도</t>
   </si>
   <si>
     <t xml:space="preserve">   화면 정의</t>
@@ -122,8 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="yy/m/d"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -417,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -445,10 +446,10 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -513,40 +514,52 @@
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="7" fillId="5" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -841,9 +854,9 @@
     <col customWidth="1" min="4" max="4" width="13.43"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="55" width="4.57"/>
-    <col customWidth="1" min="56" max="56" width="4.71"/>
-    <col customWidth="1" min="57" max="57" width="5.0"/>
+    <col customWidth="1" min="8" max="50" width="4.57"/>
+    <col customWidth="1" min="51" max="51" width="4.71"/>
+    <col customWidth="1" min="52" max="52" width="5.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -884,14 +897,12 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
@@ -916,12 +927,7 @@
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="6"/>
+      <c r="AZ1" s="6"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8"/>
@@ -968,123 +974,108 @@
         <v>24.0</v>
       </c>
       <c r="T2" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="V2" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="AH2" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="AI2" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="AJ2" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="AK2" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="AL2" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="AN2" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="AO2" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="AP2" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="AQ2" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AR2" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="AS2" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="AT2" s="13">
         <v>25.0</v>
       </c>
-      <c r="U2" s="11">
+      <c r="AU2" s="13">
         <v>26.0</v>
       </c>
-      <c r="V2" s="11">
+      <c r="AV2" s="13">
         <v>27.0</v>
       </c>
-      <c r="W2" s="11">
+      <c r="AW2" s="13">
         <v>28.0</v>
       </c>
-      <c r="X2" s="11">
+      <c r="AX2" s="13">
         <v>29.0</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="AY2" s="13">
         <v>30.0</v>
       </c>
-      <c r="Z2" s="11">
-        <v>31.0</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="AB2" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="AC2" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="AD2" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="AE2" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="AF2" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="AG2" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="AH2" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="AI2" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="AJ2" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="AK2" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="AL2" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="AM2" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="AN2" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="AP2" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="AQ2" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="AR2" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="AS2" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="AT2" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="AU2" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="AV2" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="AW2" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="AX2" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="AY2" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="AZ2" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="BA2" s="12">
-        <v>27.0</v>
-      </c>
-      <c r="BB2" s="12">
-        <v>28.0</v>
-      </c>
-      <c r="BC2" s="12">
-        <v>29.0</v>
-      </c>
-      <c r="BD2" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="BE2" s="12">
+      <c r="AZ2" s="13">
         <v>31.0</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1135,23 +1126,18 @@
       <c r="AV3" s="19"/>
       <c r="AW3" s="19"/>
       <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="21"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="25">
         <v>43808.0</v>
@@ -1208,17 +1194,12 @@
       <c r="AV4" s="19"/>
       <c r="AW4" s="19"/>
       <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="21"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="21"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="29"/>
@@ -1269,23 +1250,18 @@
       <c r="AV5" s="19"/>
       <c r="AW5" s="19"/>
       <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="21"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="21"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="25">
         <v>43810.0</v>
@@ -1342,23 +1318,18 @@
       <c r="AV6" s="19"/>
       <c r="AW6" s="19"/>
       <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="21"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="21"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="25">
         <v>43812.0</v>
@@ -1416,17 +1387,12 @@
       <c r="AV7" s="19"/>
       <c r="AW7" s="19"/>
       <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="21"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="21"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1477,23 +1443,18 @@
       <c r="AV8" s="19"/>
       <c r="AW8" s="19"/>
       <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="21"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="21"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="25">
         <v>43816.0</v>
@@ -1550,31 +1511,30 @@
       <c r="AV9" s="19"/>
       <c r="AW9" s="19"/>
       <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="21"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="21"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="25">
         <v>43817.0</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="35">
+        <v>43826.0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>7.0</v>
+      </c>
       <c r="G10" s="36">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -1588,8 +1548,8 @@
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
@@ -1619,30 +1579,31 @@
       <c r="AV10" s="19"/>
       <c r="AW10" s="19"/>
       <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="21"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="21"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="25">
         <v>43823.0</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="35">
+        <v>43826.0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>1.0</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -1655,8 +1616,8 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
@@ -1686,23 +1647,24 @@
       <c r="AV11" s="19"/>
       <c r="AW11" s="19"/>
       <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="21"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="21"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="25">
+        <v>43826.0</v>
+      </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="27"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -1717,9 +1679,9 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
@@ -1747,800 +1709,736 @@
       <c r="AV12" s="19"/>
       <c r="AW12" s="19"/>
       <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="21"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="21"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="25">
+        <v>43826.0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="21"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="21"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="44"/>
       <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="43"/>
-      <c r="AJ15" s="43"/>
-      <c r="AK15" s="43"/>
-      <c r="AL15" s="43"/>
-      <c r="AM15" s="43"/>
-      <c r="AN15" s="43"/>
-      <c r="AO15" s="43"/>
-      <c r="AP15" s="43"/>
-      <c r="AQ15" s="43"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="43"/>
-      <c r="AT15" s="43"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="43"/>
-      <c r="AW15" s="43"/>
-      <c r="AX15" s="43"/>
-      <c r="AY15" s="43"/>
-      <c r="AZ15" s="43"/>
-      <c r="BA15" s="43"/>
-      <c r="BB15" s="43"/>
-      <c r="BC15" s="43"/>
-      <c r="BD15" s="43"/>
-      <c r="BE15" s="43"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="43"/>
-      <c r="BC16" s="43"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="40"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c r="A18" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="46"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="46"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="46"/>
-      <c r="AZ19" s="46"/>
-      <c r="BA19" s="46"/>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="46"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="46"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="43"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="AV20" s="46"/>
-      <c r="AW20" s="46"/>
-      <c r="AX20" s="46"/>
-      <c r="AY20" s="46"/>
-      <c r="AZ20" s="46"/>
-      <c r="BA20" s="46"/>
-      <c r="BB20" s="46"/>
-      <c r="BC20" s="46"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="46"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="43"/>
+      <c r="AW20" s="43"/>
+      <c r="AX20" s="43"/>
+      <c r="AY20" s="43"/>
+      <c r="AZ20" s="43"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="46"/>
-      <c r="AZ21" s="46"/>
-      <c r="BA21" s="46"/>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="46"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="46"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="46"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="46"/>
-      <c r="AT22" s="46"/>
-      <c r="AU22" s="46"/>
-      <c r="AV22" s="46"/>
-      <c r="AW22" s="46"/>
-      <c r="AX22" s="46"/>
-      <c r="AY22" s="46"/>
-      <c r="AZ22" s="46"/>
-      <c r="BA22" s="46"/>
-      <c r="BB22" s="46"/>
-      <c r="BC22" s="46"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="46"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="43"/>
+      <c r="AY22" s="43"/>
+      <c r="AZ22" s="43"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="46"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
-      <c r="BA24" s="46"/>
-      <c r="BB24" s="46"/>
-      <c r="BC24" s="46"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="46"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="43"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="43"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="43"/>
+      <c r="AY25" s="43"/>
+      <c r="AZ25" s="43"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c r="A26" s="34" t="s">
         <v>26</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="47"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="37" t="s">
-        <v>27</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="27"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -2585,24 +2483,19 @@
       <c r="AV26" s="19"/>
       <c r="AW26" s="19"/>
       <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="21"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="51"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="48"/>
+      <c r="A27" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -2646,24 +2539,19 @@
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="20"/>
-      <c r="BE27" s="21"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="21"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
+      <c r="A28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -2707,22 +2595,19 @@
       <c r="AV28" s="19"/>
       <c r="AW28" s="19"/>
       <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="21"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="21"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="A29" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -2766,21 +2651,16 @@
       <c r="AV29" s="19"/>
       <c r="AW29" s="19"/>
       <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
-      <c r="BA29" s="19"/>
-      <c r="BB29" s="19"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="20"/>
-      <c r="BE29" s="21"/>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="21"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="24"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="35"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="36"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -2825,22 +2705,17 @@
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
       <c r="AX30" s="19"/>
-      <c r="AY30" s="19"/>
-      <c r="AZ30" s="19"/>
-      <c r="BA30" s="19"/>
-      <c r="BB30" s="19"/>
-      <c r="BC30" s="19"/>
-      <c r="BD30" s="20"/>
-      <c r="BE30" s="21"/>
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="21"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="27"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -2884,22 +2759,17 @@
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
       <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="20"/>
-      <c r="BE31" s="21"/>
+      <c r="AY31" s="20"/>
+      <c r="AZ31" s="21"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -2943,21 +2813,16 @@
       <c r="AV32" s="19"/>
       <c r="AW32" s="19"/>
       <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="20"/>
-      <c r="BE32" s="21"/>
+      <c r="AY32" s="20"/>
+      <c r="AZ32" s="21"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="37"/>
-      <c r="B33" s="59"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
-      <c r="F33" s="35"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="36"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -3002,21 +2867,16 @@
       <c r="AV33" s="19"/>
       <c r="AW33" s="19"/>
       <c r="AX33" s="19"/>
-      <c r="AY33" s="19"/>
-      <c r="AZ33" s="19"/>
-      <c r="BA33" s="19"/>
-      <c r="BB33" s="19"/>
-      <c r="BC33" s="19"/>
-      <c r="BD33" s="20"/>
-      <c r="BE33" s="21"/>
+      <c r="AY33" s="20"/>
+      <c r="AZ33" s="21"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="37"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="24"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="35"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="36"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -3061,24 +2921,17 @@
       <c r="AV34" s="19"/>
       <c r="AW34" s="19"/>
       <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
-      <c r="BB34" s="19"/>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="20"/>
-      <c r="BE34" s="21"/>
+      <c r="AY34" s="20"/>
+      <c r="AZ34" s="21"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
@@ -3122,22 +2975,19 @@
       <c r="AV35" s="19"/>
       <c r="AW35" s="19"/>
       <c r="AX35" s="19"/>
-      <c r="AY35" s="19"/>
-      <c r="AZ35" s="19"/>
-      <c r="BA35" s="19"/>
-      <c r="BB35" s="19"/>
-      <c r="BC35" s="19"/>
-      <c r="BD35" s="20"/>
-      <c r="BE35" s="21"/>
+      <c r="AY35" s="20"/>
+      <c r="AZ35" s="21"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -3181,22 +3031,17 @@
       <c r="AV36" s="19"/>
       <c r="AW36" s="19"/>
       <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="19"/>
-      <c r="BA36" s="19"/>
-      <c r="BB36" s="19"/>
-      <c r="BC36" s="19"/>
-      <c r="BD36" s="20"/>
-      <c r="BE36" s="21"/>
+      <c r="AY36" s="20"/>
+      <c r="AZ36" s="21"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
@@ -3240,21 +3085,16 @@
       <c r="AV37" s="19"/>
       <c r="AW37" s="19"/>
       <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="19"/>
-      <c r="BB37" s="19"/>
-      <c r="BC37" s="19"/>
-      <c r="BD37" s="20"/>
-      <c r="BE37" s="21"/>
+      <c r="AY37" s="20"/>
+      <c r="AZ37" s="21"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="35"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="36"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -3299,22 +3139,17 @@
       <c r="AV38" s="19"/>
       <c r="AW38" s="19"/>
       <c r="AX38" s="19"/>
-      <c r="AY38" s="19"/>
-      <c r="AZ38" s="19"/>
-      <c r="BA38" s="19"/>
-      <c r="BB38" s="19"/>
-      <c r="BC38" s="19"/>
-      <c r="BD38" s="20"/>
-      <c r="BE38" s="21"/>
+      <c r="AY38" s="20"/>
+      <c r="AZ38" s="21"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="64"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
@@ -3358,22 +3193,17 @@
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
       <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="19"/>
-      <c r="BA39" s="19"/>
-      <c r="BB39" s="19"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="20"/>
-      <c r="BE39" s="21"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="21"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="65"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -3417,22 +3247,17 @@
       <c r="AV40" s="19"/>
       <c r="AW40" s="19"/>
       <c r="AX40" s="19"/>
-      <c r="AY40" s="19"/>
-      <c r="AZ40" s="19"/>
-      <c r="BA40" s="19"/>
-      <c r="BB40" s="19"/>
-      <c r="BC40" s="19"/>
-      <c r="BD40" s="20"/>
-      <c r="BE40" s="21"/>
+      <c r="AY40" s="20"/>
+      <c r="AZ40" s="21"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="65"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
@@ -3476,22 +3301,17 @@
       <c r="AV41" s="19"/>
       <c r="AW41" s="19"/>
       <c r="AX41" s="19"/>
-      <c r="AY41" s="19"/>
-      <c r="AZ41" s="19"/>
-      <c r="BA41" s="19"/>
-      <c r="BB41" s="19"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="20"/>
-      <c r="BE41" s="21"/>
+      <c r="AY41" s="20"/>
+      <c r="AZ41" s="21"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="66"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="24"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="65"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
@@ -3535,22 +3355,17 @@
       <c r="AV42" s="19"/>
       <c r="AW42" s="19"/>
       <c r="AX42" s="19"/>
-      <c r="AY42" s="19"/>
-      <c r="AZ42" s="19"/>
-      <c r="BA42" s="19"/>
-      <c r="BB42" s="19"/>
-      <c r="BC42" s="19"/>
-      <c r="BD42" s="20"/>
-      <c r="BE42" s="21"/>
+      <c r="AY42" s="20"/>
+      <c r="AZ42" s="21"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="37"/>
-      <c r="B43" s="66"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="65"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -3594,22 +3409,17 @@
       <c r="AV43" s="19"/>
       <c r="AW43" s="19"/>
       <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="19"/>
-      <c r="BA43" s="19"/>
-      <c r="BB43" s="19"/>
-      <c r="BC43" s="19"/>
-      <c r="BD43" s="20"/>
-      <c r="BE43" s="21"/>
+      <c r="AY43" s="20"/>
+      <c r="AZ43" s="21"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="37"/>
-      <c r="B44" s="66"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="24"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="65"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -3653,24 +3463,17 @@
       <c r="AV44" s="19"/>
       <c r="AW44" s="19"/>
       <c r="AX44" s="19"/>
-      <c r="AY44" s="19"/>
-      <c r="AZ44" s="19"/>
-      <c r="BA44" s="19"/>
-      <c r="BB44" s="19"/>
-      <c r="BC44" s="19"/>
-      <c r="BD44" s="20"/>
-      <c r="BE44" s="21"/>
+      <c r="AY44" s="20"/>
+      <c r="AZ44" s="21"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
@@ -3714,22 +3517,19 @@
       <c r="AV45" s="19"/>
       <c r="AW45" s="19"/>
       <c r="AX45" s="19"/>
-      <c r="AY45" s="19"/>
-      <c r="AZ45" s="19"/>
-      <c r="BA45" s="19"/>
-      <c r="BB45" s="19"/>
-      <c r="BC45" s="19"/>
-      <c r="BD45" s="20"/>
-      <c r="BE45" s="21"/>
+      <c r="AY45" s="20"/>
+      <c r="AZ45" s="21"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="62"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="27"/>
+      <c r="A46" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="71"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -3773,22 +3573,17 @@
       <c r="AV46" s="19"/>
       <c r="AW46" s="19"/>
       <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="19"/>
-      <c r="BA46" s="19"/>
-      <c r="BB46" s="19"/>
-      <c r="BC46" s="19"/>
-      <c r="BD46" s="20"/>
-      <c r="BE46" s="21"/>
+      <c r="AY46" s="20"/>
+      <c r="AZ46" s="21"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="37"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="64"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
@@ -3832,22 +3627,17 @@
       <c r="AV47" s="19"/>
       <c r="AW47" s="19"/>
       <c r="AX47" s="19"/>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BB47" s="19"/>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="20"/>
-      <c r="BE47" s="21"/>
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="21"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="37"/>
-      <c r="B48" s="63"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="24"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="65"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
@@ -3891,22 +3681,17 @@
       <c r="AV48" s="19"/>
       <c r="AW48" s="19"/>
       <c r="AX48" s="19"/>
-      <c r="AY48" s="19"/>
-      <c r="AZ48" s="19"/>
-      <c r="BA48" s="19"/>
-      <c r="BB48" s="19"/>
-      <c r="BC48" s="19"/>
-      <c r="BD48" s="20"/>
-      <c r="BE48" s="21"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="21"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="37"/>
-      <c r="B49" s="63"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="65"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -3950,22 +3735,17 @@
       <c r="AV49" s="19"/>
       <c r="AW49" s="19"/>
       <c r="AX49" s="19"/>
-      <c r="AY49" s="19"/>
-      <c r="AZ49" s="19"/>
-      <c r="BA49" s="19"/>
-      <c r="BB49" s="19"/>
-      <c r="BC49" s="19"/>
-      <c r="BD49" s="20"/>
-      <c r="BE49" s="21"/>
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="21"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="37"/>
-      <c r="B50" s="63"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="65"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
@@ -4009,22 +3789,17 @@
       <c r="AV50" s="19"/>
       <c r="AW50" s="19"/>
       <c r="AX50" s="19"/>
-      <c r="AY50" s="19"/>
-      <c r="AZ50" s="19"/>
-      <c r="BA50" s="19"/>
-      <c r="BB50" s="19"/>
-      <c r="BC50" s="19"/>
-      <c r="BD50" s="20"/>
-      <c r="BE50" s="21"/>
+      <c r="AY50" s="20"/>
+      <c r="AZ50" s="21"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="37"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="24"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="65"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -4068,22 +3843,17 @@
       <c r="AV51" s="19"/>
       <c r="AW51" s="19"/>
       <c r="AX51" s="19"/>
-      <c r="AY51" s="19"/>
-      <c r="AZ51" s="19"/>
-      <c r="BA51" s="19"/>
-      <c r="BB51" s="19"/>
-      <c r="BC51" s="19"/>
-      <c r="BD51" s="20"/>
-      <c r="BE51" s="21"/>
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="21"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="37"/>
-      <c r="B52" s="59"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="24"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="64"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -4127,22 +3897,17 @@
       <c r="AV52" s="19"/>
       <c r="AW52" s="19"/>
       <c r="AX52" s="19"/>
-      <c r="AY52" s="19"/>
-      <c r="AZ52" s="19"/>
-      <c r="BA52" s="19"/>
-      <c r="BB52" s="19"/>
-      <c r="BC52" s="19"/>
-      <c r="BD52" s="20"/>
-      <c r="BE52" s="21"/>
+      <c r="AY52" s="20"/>
+      <c r="AZ52" s="21"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="37"/>
-      <c r="B53" s="59"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="24"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="65"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
@@ -4186,22 +3951,17 @@
       <c r="AV53" s="19"/>
       <c r="AW53" s="19"/>
       <c r="AX53" s="19"/>
-      <c r="AY53" s="19"/>
-      <c r="AZ53" s="19"/>
-      <c r="BA53" s="19"/>
-      <c r="BB53" s="19"/>
-      <c r="BC53" s="19"/>
-      <c r="BD53" s="20"/>
-      <c r="BE53" s="21"/>
+      <c r="AY53" s="20"/>
+      <c r="AZ53" s="21"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="37"/>
-      <c r="B54" s="59"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="24"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="65"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="69"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
@@ -4245,22 +4005,17 @@
       <c r="AV54" s="19"/>
       <c r="AW54" s="19"/>
       <c r="AX54" s="19"/>
-      <c r="AY54" s="19"/>
-      <c r="AZ54" s="19"/>
-      <c r="BA54" s="19"/>
-      <c r="BB54" s="19"/>
-      <c r="BC54" s="19"/>
-      <c r="BD54" s="20"/>
-      <c r="BE54" s="21"/>
+      <c r="AY54" s="20"/>
+      <c r="AZ54" s="21"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="37"/>
-      <c r="B55" s="56"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="24"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
@@ -4304,22 +4059,17 @@
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
       <c r="AX55" s="19"/>
-      <c r="AY55" s="19"/>
-      <c r="AZ55" s="19"/>
-      <c r="BA55" s="19"/>
-      <c r="BB55" s="19"/>
-      <c r="BC55" s="19"/>
-      <c r="BD55" s="20"/>
-      <c r="BE55" s="21"/>
+      <c r="AY55" s="20"/>
+      <c r="AZ55" s="21"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="37"/>
-      <c r="B56" s="56"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="65"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
@@ -4363,22 +4113,17 @@
       <c r="AV56" s="19"/>
       <c r="AW56" s="19"/>
       <c r="AX56" s="19"/>
-      <c r="AY56" s="19"/>
-      <c r="AZ56" s="19"/>
-      <c r="BA56" s="19"/>
-      <c r="BB56" s="19"/>
-      <c r="BC56" s="19"/>
-      <c r="BD56" s="20"/>
-      <c r="BE56" s="21"/>
+      <c r="AY56" s="20"/>
+      <c r="AZ56" s="21"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="37"/>
-      <c r="B57" s="56"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="24"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="65"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
@@ -4422,22 +4167,17 @@
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
       <c r="AX57" s="19"/>
-      <c r="AY57" s="19"/>
-      <c r="AZ57" s="19"/>
-      <c r="BA57" s="19"/>
-      <c r="BB57" s="19"/>
-      <c r="BC57" s="19"/>
-      <c r="BD57" s="20"/>
-      <c r="BE57" s="21"/>
+      <c r="AY57" s="20"/>
+      <c r="AZ57" s="21"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="37"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="27"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="69"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
@@ -4481,22 +4221,17 @@
       <c r="AV58" s="19"/>
       <c r="AW58" s="19"/>
       <c r="AX58" s="19"/>
-      <c r="AY58" s="19"/>
-      <c r="AZ58" s="19"/>
-      <c r="BA58" s="19"/>
-      <c r="BB58" s="19"/>
-      <c r="BC58" s="19"/>
-      <c r="BD58" s="20"/>
-      <c r="BE58" s="21"/>
+      <c r="AY58" s="20"/>
+      <c r="AZ58" s="21"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="37"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="64"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
@@ -4540,22 +4275,17 @@
       <c r="AV59" s="19"/>
       <c r="AW59" s="19"/>
       <c r="AX59" s="19"/>
-      <c r="AY59" s="19"/>
-      <c r="AZ59" s="19"/>
-      <c r="BA59" s="19"/>
-      <c r="BB59" s="19"/>
-      <c r="BC59" s="19"/>
-      <c r="BD59" s="20"/>
-      <c r="BE59" s="21"/>
+      <c r="AY59" s="20"/>
+      <c r="AZ59" s="21"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="37"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="24"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="65"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
@@ -4599,22 +4329,17 @@
       <c r="AV60" s="19"/>
       <c r="AW60" s="19"/>
       <c r="AX60" s="19"/>
-      <c r="AY60" s="19"/>
-      <c r="AZ60" s="19"/>
-      <c r="BA60" s="19"/>
-      <c r="BB60" s="19"/>
-      <c r="BC60" s="19"/>
-      <c r="BD60" s="20"/>
-      <c r="BE60" s="21"/>
+      <c r="AY60" s="20"/>
+      <c r="AZ60" s="21"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="37"/>
-      <c r="B61" s="56"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="24"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="65"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="69"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
@@ -4658,22 +4383,17 @@
       <c r="AV61" s="19"/>
       <c r="AW61" s="19"/>
       <c r="AX61" s="19"/>
-      <c r="AY61" s="19"/>
-      <c r="AZ61" s="19"/>
-      <c r="BA61" s="19"/>
-      <c r="BB61" s="19"/>
-      <c r="BC61" s="19"/>
-      <c r="BD61" s="20"/>
-      <c r="BE61" s="21"/>
+      <c r="AY61" s="20"/>
+      <c r="AZ61" s="21"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="37"/>
-      <c r="B62" s="66"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="24"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="65"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -4717,22 +4437,17 @@
       <c r="AV62" s="19"/>
       <c r="AW62" s="19"/>
       <c r="AX62" s="19"/>
-      <c r="AY62" s="19"/>
-      <c r="AZ62" s="19"/>
-      <c r="BA62" s="19"/>
-      <c r="BB62" s="19"/>
-      <c r="BC62" s="19"/>
-      <c r="BD62" s="20"/>
-      <c r="BE62" s="21"/>
+      <c r="AY62" s="20"/>
+      <c r="AZ62" s="21"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="37"/>
-      <c r="B63" s="66"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="24"/>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="65"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="69"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
@@ -4776,22 +4491,17 @@
       <c r="AV63" s="19"/>
       <c r="AW63" s="19"/>
       <c r="AX63" s="19"/>
-      <c r="AY63" s="19"/>
-      <c r="AZ63" s="19"/>
-      <c r="BA63" s="19"/>
-      <c r="BB63" s="19"/>
-      <c r="BC63" s="19"/>
-      <c r="BD63" s="20"/>
-      <c r="BE63" s="21"/>
+      <c r="AY63" s="20"/>
+      <c r="AZ63" s="21"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="37"/>
-      <c r="B64" s="66"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="24"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="65"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="69"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
@@ -4835,22 +4545,17 @@
       <c r="AV64" s="19"/>
       <c r="AW64" s="19"/>
       <c r="AX64" s="19"/>
-      <c r="AY64" s="19"/>
-      <c r="AZ64" s="19"/>
-      <c r="BA64" s="19"/>
-      <c r="BB64" s="19"/>
-      <c r="BC64" s="19"/>
-      <c r="BD64" s="20"/>
-      <c r="BE64" s="21"/>
+      <c r="AY64" s="20"/>
+      <c r="AZ64" s="21"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="37"/>
-      <c r="B65" s="66"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="24"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="64"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
@@ -4894,22 +4599,17 @@
       <c r="AV65" s="19"/>
       <c r="AW65" s="19"/>
       <c r="AX65" s="19"/>
-      <c r="AY65" s="19"/>
-      <c r="AZ65" s="19"/>
-      <c r="BA65" s="19"/>
-      <c r="BB65" s="19"/>
-      <c r="BC65" s="19"/>
-      <c r="BD65" s="20"/>
-      <c r="BE65" s="21"/>
+      <c r="AY65" s="20"/>
+      <c r="AZ65" s="21"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="37"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="24"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="65"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="68"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
@@ -4953,22 +4653,17 @@
       <c r="AV66" s="19"/>
       <c r="AW66" s="19"/>
       <c r="AX66" s="19"/>
-      <c r="AY66" s="19"/>
-      <c r="AZ66" s="19"/>
-      <c r="BA66" s="19"/>
-      <c r="BB66" s="19"/>
-      <c r="BC66" s="19"/>
-      <c r="BD66" s="20"/>
-      <c r="BE66" s="21"/>
+      <c r="AY66" s="20"/>
+      <c r="AZ66" s="21"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="37"/>
-      <c r="B67" s="59"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="24"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="65"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
@@ -5012,22 +4707,17 @@
       <c r="AV67" s="19"/>
       <c r="AW67" s="19"/>
       <c r="AX67" s="19"/>
-      <c r="AY67" s="19"/>
-      <c r="AZ67" s="19"/>
-      <c r="BA67" s="19"/>
-      <c r="BB67" s="19"/>
-      <c r="BC67" s="19"/>
-      <c r="BD67" s="20"/>
-      <c r="BE67" s="21"/>
+      <c r="AY67" s="20"/>
+      <c r="AZ67" s="21"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="37"/>
-      <c r="B68" s="59"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="24"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="65"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="69"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
@@ -5071,31 +4761,26 @@
       <c r="AV68" s="19"/>
       <c r="AW68" s="19"/>
       <c r="AX68" s="19"/>
-      <c r="AY68" s="19"/>
-      <c r="AZ68" s="19"/>
-      <c r="BA68" s="19"/>
-      <c r="BB68" s="19"/>
-      <c r="BC68" s="19"/>
-      <c r="BD68" s="20"/>
-      <c r="BE68" s="21"/>
+      <c r="AY68" s="20"/>
+      <c r="AZ68" s="21"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="37"/>
-      <c r="B69" s="59"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="24"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="65"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="69"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
       <c r="L69" s="19"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
@@ -5130,42 +4815,37 @@
       <c r="AV69" s="19"/>
       <c r="AW69" s="19"/>
       <c r="AX69" s="19"/>
-      <c r="AY69" s="19"/>
-      <c r="AZ69" s="19"/>
-      <c r="BA69" s="19"/>
-      <c r="BB69" s="19"/>
-      <c r="BC69" s="19"/>
-      <c r="BD69" s="20"/>
-      <c r="BE69" s="21"/>
+      <c r="AY69" s="20"/>
+      <c r="AZ69" s="21"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="37"/>
-      <c r="B70" s="59"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="24"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="65"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="69"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
       <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
@@ -5189,22 +4869,17 @@
       <c r="AV70" s="19"/>
       <c r="AW70" s="19"/>
       <c r="AX70" s="19"/>
-      <c r="AY70" s="19"/>
-      <c r="AZ70" s="19"/>
-      <c r="BA70" s="19"/>
-      <c r="BB70" s="19"/>
-      <c r="BC70" s="19"/>
-      <c r="BD70" s="20"/>
-      <c r="BE70" s="21"/>
+      <c r="AY70" s="20"/>
+      <c r="AZ70" s="21"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="37"/>
-      <c r="B71" s="59"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="24"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="64"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
@@ -5213,13 +4888,13 @@
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="30"/>
+      <c r="V71" s="30"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
       <c r="Y71" s="19"/>
@@ -5248,22 +4923,17 @@
       <c r="AV71" s="19"/>
       <c r="AW71" s="19"/>
       <c r="AX71" s="19"/>
-      <c r="AY71" s="19"/>
-      <c r="AZ71" s="19"/>
-      <c r="BA71" s="19"/>
-      <c r="BB71" s="19"/>
-      <c r="BC71" s="19"/>
-      <c r="BD71" s="20"/>
-      <c r="BE71" s="21"/>
+      <c r="AY71" s="20"/>
+      <c r="AZ71" s="21"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="37"/>
-      <c r="B72" s="59"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="24"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="65"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
@@ -5307,22 +4977,17 @@
       <c r="AV72" s="19"/>
       <c r="AW72" s="19"/>
       <c r="AX72" s="19"/>
-      <c r="AY72" s="19"/>
-      <c r="AZ72" s="19"/>
-      <c r="BA72" s="19"/>
-      <c r="BB72" s="19"/>
-      <c r="BC72" s="19"/>
-      <c r="BD72" s="20"/>
-      <c r="BE72" s="21"/>
+      <c r="AY72" s="20"/>
+      <c r="AZ72" s="21"/>
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="59"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="24"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="64"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="69"/>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="19"/>
@@ -5366,13 +5031,8 @@
       <c r="AV73" s="19"/>
       <c r="AW73" s="19"/>
       <c r="AX73" s="19"/>
-      <c r="AY73" s="19"/>
-      <c r="AZ73" s="19"/>
-      <c r="BA73" s="19"/>
-      <c r="BB73" s="19"/>
-      <c r="BC73" s="19"/>
-      <c r="BD73" s="20"/>
-      <c r="BE73" s="21"/>
+      <c r="AY73" s="20"/>
+      <c r="AZ73" s="21"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="37"/>
@@ -5380,8 +5040,8 @@
       <c r="C74" s="24"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="65"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="68"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
@@ -5425,22 +5085,17 @@
       <c r="AV74" s="19"/>
       <c r="AW74" s="19"/>
       <c r="AX74" s="19"/>
-      <c r="AY74" s="19"/>
-      <c r="AZ74" s="19"/>
-      <c r="BA74" s="19"/>
-      <c r="BB74" s="19"/>
-      <c r="BC74" s="19"/>
-      <c r="BD74" s="20"/>
-      <c r="BE74" s="21"/>
+      <c r="AY74" s="20"/>
+      <c r="AZ74" s="21"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="37"/>
-      <c r="B75" s="63"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="24"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="65"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="69"/>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="19"/>
@@ -5484,22 +5139,17 @@
       <c r="AV75" s="19"/>
       <c r="AW75" s="19"/>
       <c r="AX75" s="19"/>
-      <c r="AY75" s="19"/>
-      <c r="AZ75" s="19"/>
-      <c r="BA75" s="19"/>
-      <c r="BB75" s="19"/>
-      <c r="BC75" s="19"/>
-      <c r="BD75" s="20"/>
-      <c r="BE75" s="21"/>
+      <c r="AY75" s="20"/>
+      <c r="AZ75" s="21"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="37"/>
-      <c r="B76" s="63"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="24"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="65"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="69"/>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5543,22 +5193,17 @@
       <c r="AV76" s="19"/>
       <c r="AW76" s="19"/>
       <c r="AX76" s="19"/>
-      <c r="AY76" s="19"/>
-      <c r="AZ76" s="19"/>
-      <c r="BA76" s="19"/>
-      <c r="BB76" s="19"/>
-      <c r="BC76" s="19"/>
-      <c r="BD76" s="20"/>
-      <c r="BE76" s="21"/>
+      <c r="AY76" s="20"/>
+      <c r="AZ76" s="21"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="37"/>
-      <c r="B77" s="69"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="24"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="65"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5602,22 +5247,17 @@
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
       <c r="AX77" s="19"/>
-      <c r="AY77" s="19"/>
-      <c r="AZ77" s="19"/>
-      <c r="BA77" s="19"/>
-      <c r="BB77" s="19"/>
-      <c r="BC77" s="19"/>
-      <c r="BD77" s="20"/>
-      <c r="BE77" s="21"/>
+      <c r="AY77" s="20"/>
+      <c r="AZ77" s="21"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="37"/>
-      <c r="B78" s="69"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="24"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="65"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="19"/>
@@ -5661,24 +5301,17 @@
       <c r="AV78" s="19"/>
       <c r="AW78" s="19"/>
       <c r="AX78" s="19"/>
-      <c r="AY78" s="19"/>
-      <c r="AZ78" s="19"/>
-      <c r="BA78" s="19"/>
-      <c r="BB78" s="19"/>
-      <c r="BC78" s="19"/>
-      <c r="BD78" s="20"/>
-      <c r="BE78" s="21"/>
+      <c r="AY78" s="20"/>
+      <c r="AZ78" s="21"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="69"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
@@ -5722,24 +5355,19 @@
       <c r="AV79" s="19"/>
       <c r="AW79" s="19"/>
       <c r="AX79" s="19"/>
-      <c r="AY79" s="19"/>
-      <c r="AZ79" s="19"/>
-      <c r="BA79" s="19"/>
-      <c r="BB79" s="19"/>
-      <c r="BC79" s="19"/>
-      <c r="BD79" s="19"/>
-      <c r="BE79" s="19"/>
+      <c r="AY79" s="20"/>
+      <c r="AZ79" s="21"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="65"/>
+      <c r="A80" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="19"/>
@@ -5785,22 +5413,17 @@
       <c r="AX80" s="19"/>
       <c r="AY80" s="19"/>
       <c r="AZ80" s="19"/>
-      <c r="BA80" s="19"/>
-      <c r="BB80" s="19"/>
-      <c r="BC80" s="19"/>
-      <c r="BD80" s="20"/>
-      <c r="BE80" s="21"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="65"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="69"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="19"/>
@@ -5844,21 +5467,71 @@
       <c r="AV81" s="19"/>
       <c r="AW81" s="19"/>
       <c r="AX81" s="19"/>
-      <c r="AY81" s="19"/>
-      <c r="AZ81" s="19"/>
-      <c r="BA81" s="19"/>
-      <c r="BB81" s="19"/>
-      <c r="BC81" s="19"/>
-      <c r="BD81" s="20"/>
-      <c r="BE81" s="21"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="21"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c r="A82" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="19"/>
+      <c r="AF82" s="19"/>
+      <c r="AG82" s="19"/>
+      <c r="AH82" s="19"/>
+      <c r="AI82" s="19"/>
+      <c r="AJ82" s="19"/>
+      <c r="AK82" s="19"/>
+      <c r="AL82" s="19"/>
+      <c r="AM82" s="19"/>
+      <c r="AN82" s="19"/>
+      <c r="AO82" s="19"/>
+      <c r="AP82" s="19"/>
+      <c r="AQ82" s="19"/>
+      <c r="AR82" s="19"/>
+      <c r="AS82" s="19"/>
+      <c r="AT82" s="19"/>
+      <c r="AU82" s="19"/>
+      <c r="AV82" s="19"/>
+      <c r="AW82" s="19"/>
+      <c r="AX82" s="19"/>
+      <c r="AY82" s="20"/>
+      <c r="AZ82" s="21"/>
+    </row>
     <row r="83" ht="16.5" customHeight="1"/>
     <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="70"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1">
+      <c r="A86" s="74"/>
+    </row>
     <row r="87" ht="16.5" customHeight="1"/>
     <row r="88" ht="16.5" customHeight="1"/>
     <row r="89" ht="16.5" customHeight="1"/>
@@ -6802,6 +6475,7 @@
     <row r="1027" ht="16.5" customHeight="1"/>
     <row r="1028" ht="16.5" customHeight="1"/>
     <row r="1029" ht="16.5" customHeight="1"/>
+    <row r="1030" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
@@ -6811,8 +6485,8 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="AA1:BE1"/>
-    <mergeCell ref="H1:Z1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:AZ1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
